--- a/tst.transaction.batch.handling/tst.transaction.batch.handling,dispatcher/Data/Config.xlsx
+++ b/tst.transaction.batch.handling/tst.transaction.batch.handling,dispatcher/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcred\Desktop\RPA\learningRPA\examples\testingTransactionBatchHandling\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitHubbedPJ\PRPA\tst.transaction.batch.handling\tst.transaction.batch.handling,dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06AB01-D36F-4C7D-BA17-9A52066FB969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043DF759-F78D-4FE3-B340-4C25613B3E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
